--- a/Useful Commands.xlsx
+++ b/Useful Commands.xlsx
@@ -672,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -709,6 +709,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,13 +728,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,13 +1033,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="183.7109375" bestFit="1" customWidth="1"/>
@@ -1055,10 +1061,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1069,8 +1075,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
         <v>178</v>
       </c>
@@ -1079,8 +1085,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="1" t="s">
         <v>179</v>
       </c>
@@ -1089,8 +1095,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="1" t="s">
         <v>180</v>
       </c>
@@ -1105,10 +1111,10 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1119,8 +1125,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1144,7 @@
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1150,7 +1156,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1166,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1184,7 @@
       <c r="A15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1190,7 +1196,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1214,7 @@
       <c r="A18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1220,7 +1226,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1244,7 @@
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1250,7 +1256,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="A24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1280,7 +1286,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1300,8 @@
       <c r="C26" s="1"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1314,8 +1320,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1358,7 +1364,7 @@
       <c r="A33" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1370,7 +1376,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="3" t="s">
         <v>96</v>
       </c>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="1" t="s">
         <v>95</v>
       </c>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
@@ -1415,10 +1421,10 @@
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1429,8 +1435,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
@@ -1439,8 +1445,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="1" t="s">
         <v>62</v>
       </c>
@@ -1449,8 +1455,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
@@ -1465,18 +1471,18 @@
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1487,8 +1493,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1497,8 +1503,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
@@ -1507,8 +1513,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
@@ -1517,8 +1523,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="1" t="s">
         <v>76</v>
       </c>
@@ -1527,8 +1533,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="1" t="s">
         <v>75</v>
       </c>
@@ -1609,18 +1615,18 @@
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1632,7 +1638,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="1" t="s">
         <v>117</v>
       </c>
@@ -1650,7 +1656,7 @@
       <c r="A63" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1662,7 +1668,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="1" t="s">
         <v>121</v>
       </c>
@@ -1710,7 +1716,7 @@
       <c r="A69" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1722,7 +1728,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="1" t="s">
         <v>134</v>
       </c>
@@ -1780,7 +1786,7 @@
       <c r="A76" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1792,7 +1798,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="1" t="s">
         <v>74</v>
       </c>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="1" t="s">
         <v>75</v>
       </c>
@@ -1903,10 +1909,10 @@
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="17" t="s">
         <v>171</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -1917,8 +1923,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="1" t="s">
         <v>173</v>
       </c>
@@ -1927,8 +1933,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="6" t="s">
         <v>57</v>
       </c>
@@ -1937,8 +1943,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="1" t="s">
         <v>174</v>
       </c>
@@ -2004,32 +2010,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A97:B98"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="A83:B87"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A39:A42"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A24:A25"/>
@@ -2044,6 +2024,32 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="A83:B87"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A89:A92"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Useful Commands.xlsx
+++ b/Useful Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="195">
   <si>
     <t>git init</t>
   </si>
@@ -498,9 +498,6 @@
     <t>git merge --abort</t>
   </si>
   <si>
-    <t>git push origin branchname</t>
-  </si>
-  <si>
     <t>First Delete commit from local. Then push changes to server to delete that commit from there. You will not like to do this if your repository is public and someone might have added some commit there.</t>
   </si>
   <si>
@@ -595,6 +592,15 @@
   </si>
   <si>
     <t>git push --set-upstream-to &lt;remote&gt; &lt;branch&gt;</t>
+  </si>
+  <si>
+    <t>git push origin branchname --force</t>
+  </si>
+  <si>
+    <t>To close git bash loop</t>
+  </si>
+  <si>
+    <t>Press Q</t>
   </si>
 </sst>
 </file>
@@ -713,13 +719,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,7 +728,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B50"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,44 +1067,44 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>69</v>
@@ -1111,10 +1117,10 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1125,8 +1131,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1141,10 +1147,10 @@
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1155,8 +1161,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1165,8 +1171,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
@@ -1181,10 +1187,10 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1195,8 +1201,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1211,10 +1217,10 @@
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1225,8 +1231,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1241,10 +1247,10 @@
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1255,8 +1261,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1271,10 +1277,10 @@
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1285,8 +1291,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1321,7 +1327,7 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1361,10 +1367,10 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1375,8 +1381,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
@@ -1385,8 +1391,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="3" t="s">
         <v>96</v>
       </c>
@@ -1395,8 +1401,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="1" t="s">
         <v>95</v>
       </c>
@@ -1405,8 +1411,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="1" t="s">
         <v>100</v>
       </c>
@@ -1421,10 +1427,10 @@
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1435,8 +1441,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
@@ -1445,8 +1451,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="1" t="s">
         <v>62</v>
       </c>
@@ -1455,8 +1461,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
@@ -1471,18 +1477,18 @@
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1493,8 +1499,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1503,8 +1509,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="5" t="s">
         <v>85</v>
       </c>
@@ -1513,8 +1519,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
@@ -1523,8 +1529,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="1" t="s">
         <v>76</v>
       </c>
@@ -1533,8 +1539,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="1" t="s">
         <v>75</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>90</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>80</v>
@@ -1615,18 +1621,18 @@
       <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1637,8 +1643,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="1" t="s">
         <v>117</v>
       </c>
@@ -1653,10 +1659,10 @@
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1667,8 +1673,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="1" t="s">
         <v>121</v>
       </c>
@@ -1683,10 +1689,10 @@
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="20" t="s">
         <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1697,8 +1703,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="1" t="s">
         <v>122</v>
       </c>
@@ -1713,10 +1719,10 @@
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1727,8 +1733,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="1" t="s">
         <v>134</v>
       </c>
@@ -1743,10 +1749,10 @@
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1757,8 +1763,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="1" t="s">
         <v>140</v>
       </c>
@@ -1767,8 +1773,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="1" t="s">
         <v>143</v>
       </c>
@@ -1783,10 +1789,10 @@
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1797,8 +1803,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="1" t="s">
         <v>74</v>
       </c>
@@ -1807,8 +1813,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="1" t="s">
         <v>75</v>
       </c>
@@ -1823,25 +1829,25 @@
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" s="18"/>
+      <c r="A80" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="12" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,10 +1857,10 @@
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="18"/>
+      <c r="A83" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="20"/>
       <c r="C83" s="1" t="s">
         <v>55</v>
       </c>
@@ -1863,18 +1869,18 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="1" t="s">
         <v>148</v>
       </c>
@@ -1883,8 +1889,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="1" t="s">
         <v>150</v>
       </c>
@@ -1893,8 +1899,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="1" t="s">
         <v>152</v>
       </c>
@@ -1909,47 +1915,47 @@
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="17" t="s">
+      <c r="A89" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D89" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1966,20 +1972,20 @@
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,27 +1995,61 @@
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="18"/>
+      <c r="A97" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="20"/>
       <c r="C97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="18" t="s">
-        <v>161</v>
+      <c r="D97" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="D98" s="20"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="A83:B87"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A24:A25"/>
@@ -2024,32 +2064,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A97:B98"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="A83:B87"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A89:A92"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2198,72 +2212,72 @@
   <sheetData>
     <row r="4" spans="5:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>182</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
